--- a/data/output/Pedido_Semana_07_15022026_utiles_jardin.xlsx
+++ b/data/output/Pedido_Semana_07_15022026_utiles_jardin.xlsx
@@ -2173,7 +2173,7 @@
         <v>3</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" s="6" t="n">
         <v>12.25</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S21" s="2" t="n">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="2" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S28" s="2" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S30" s="2" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>2</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S31" s="2" t="n">
         <v>9</v>
       </c>
       <c r="T31" s="3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U31" s="8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_07_15022026_utiles_jardin.xlsx
+++ b/data/output/Pedido_Semana_07_15022026_utiles_jardin.xlsx
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="6" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="6" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="6" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>12.5</v>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="6" t="n">
         <v>7.38</v>
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" s="6" t="n">
         <v>20.12</v>
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="6" t="n">
         <v>5.93</v>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>7.08</v>
@@ -1363,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>16.38</v>
@@ -1444,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="6" t="n">
         <v>14</v>
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>6.88</v>
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>4.72</v>
@@ -1687,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="6" t="n">
         <v>9.050000000000001</v>
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="6" t="n">
         <v>5.5</v>
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="6" t="n">
         <v>2.88</v>
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="6" t="n">
         <v>60.55</v>
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="6" t="n">
         <v>10</v>
@@ -2092,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="6" t="n">
         <v>7.45</v>
@@ -2173,7 +2173,7 @@
         <v>3</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M21" s="6" t="n">
         <v>12.25</v>
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>8</v>
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="6" t="n">
         <v>17.68</v>
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="6" t="n">
         <v>44.55</v>
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="6" t="n">
         <v>13.9</v>
@@ -2578,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>2.03</v>
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="6" t="n">
         <v>63.8</v>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="6" t="n">
         <v>25.58</v>
@@ -2821,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="6" t="n">
         <v>19.95</v>
@@ -2902,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>7.88</v>
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="6" t="n">
         <v>2.62</v>
@@ -3064,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="6" t="n">
         <v>0</v>
@@ -3145,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="6" t="n">
         <v>11.3</v>
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
